--- a/Sistem Operasi/5 - Pengantar Penjadwalan Proses (Penjadwalan CPU)/Latihan Proses Penjadwalan 1 - Yohanes Dimas Pratama (A11.2021.13254 - A11.442U).xlsx
+++ b/Sistem Operasi/5 - Pengantar Penjadwalan Proses (Penjadwalan CPU)/Latihan Proses Penjadwalan 1 - Yohanes Dimas Pratama (A11.2021.13254 - A11.442U).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Documents\Semester-4\Sistem Operasi\5 - Pengantar Penjadwalan Proses (Penjadwalan CPU)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5280FC-6B33-4A6E-8CB4-3A3162BB7ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21374D4-91AF-4517-A5DB-44DEDDE3AEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{926484CF-57BA-41E9-BC7C-2DBE90F4B2BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{926484CF-57BA-41E9-BC7C-2DBE90F4B2BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>Average turn around time</t>
   </si>
   <si>
-    <t>Saya menggunakan algoritma FIFO</t>
+    <t>Saya menggunakan algoritma RR</t>
   </si>
 </sst>
 </file>
@@ -187,16 +187,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -515,124 +515,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDD61FA-B6E9-41EA-A919-E5A047F1652D}">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="7.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="9.140625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="7.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="3"/>
+    <col min="6" max="6" width="9.109375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
@@ -668,7 +668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>1</v>
       </c>
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -717,7 +717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>3</v>
       </c>
@@ -727,19 +727,19 @@
       <c r="D14" s="2">
         <v>4</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -775,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>5</v>
       </c>
@@ -813,24 +813,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="5">
         <f>AVERAGE(C19:C23)</f>
         <v>6.4</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>1</v>
       </c>
@@ -838,17 +838,17 @@
         <f>F16-C12</f>
         <v>0</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="5">
         <f>AVERAGE(C26:C30)</f>
         <v>10.4</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>2</v>
       </c>
@@ -857,7 +857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>3</v>
       </c>
@@ -866,7 +866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>4</v>
       </c>
@@ -875,7 +875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>5</v>
       </c>
@@ -884,7 +884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>3</v>
       </c>
@@ -892,7 +892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>1</v>
       </c>
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>2</v>
       </c>
@@ -910,7 +910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>3</v>
       </c>
@@ -919,7 +919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>4</v>
       </c>
@@ -928,7 +928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>5</v>
       </c>

--- a/Sistem Operasi/5 - Pengantar Penjadwalan Proses (Penjadwalan CPU)/Latihan Proses Penjadwalan 1 - Yohanes Dimas Pratama (A11.2021.13254 - A11.442U).xlsx
+++ b/Sistem Operasi/5 - Pengantar Penjadwalan Proses (Penjadwalan CPU)/Latihan Proses Penjadwalan 1 - Yohanes Dimas Pratama (A11.2021.13254 - A11.442U).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Documents\Semester-4\Sistem Operasi\5 - Pengantar Penjadwalan Proses (Penjadwalan CPU)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21374D4-91AF-4517-A5DB-44DEDDE3AEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F87CDE2-8DB8-4EB0-BAD8-EB7DD699B7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{926484CF-57BA-41E9-BC7C-2DBE90F4B2BC}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -515,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDD61FA-B6E9-41EA-A919-E5A047F1652D}">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
